--- a/VersionRecords/Version 5.3.5.3 20170325/版本Bug和特性计划及评审表v5.3.5.5_磐石组.xlsx
+++ b/VersionRecords/Version 5.3.5.3 20170325/版本Bug和特性计划及评审表v5.3.5.5_磐石组.xlsx
@@ -249,9 +249,6 @@
     <t>重要</t>
   </si>
   <si>
-    <t>New Features</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
@@ -304,12 +301,15 @@
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -479,6 +479,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -682,7 +689,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,8 +721,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,8 +987,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="12"/>
     <cellStyle name="常规 2 2" xfId="6"/>
@@ -990,6 +1003,7 @@
     <cellStyle name="常规 6" xfId="2"/>
     <cellStyle name="常规 7" xfId="8"/>
     <cellStyle name="常规 9" xfId="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
@@ -1352,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1462,53 +1476,55 @@
         <v>68</v>
       </c>
       <c r="C2" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="E2" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>77</v>
-      </c>
       <c r="G2" s="58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H2" s="59">
         <v>42821</v>
       </c>
       <c r="I2" s="58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="59">
         <v>42821</v>
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="N2" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="58" t="s">
-        <v>80</v>
-      </c>
       <c r="P2" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="59">
         <v>42821</v>
       </c>
       <c r="R2" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="64"/>
-      <c r="T2" s="56"/>
+      <c r="T2" s="87">
+        <v>10182</v>
+      </c>
       <c r="U2" s="56"/>
       <c r="V2" s="64"/>
       <c r="W2" s="76"/>
@@ -5357,6 +5373,9 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=10182"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
